--- a/setting.xlsx
+++ b/setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanagiharashun/Desktop/anomaly_detection_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14AF361-8740-E14F-90BC-5B3BDCFACBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A01E5-3C83-7B4E-92BF-5537B6D70485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16220" xr2:uid="{2CBF9D19-5F5D-9C4F-A4A3-8C3079F62A6A}"/>
   </bookViews>
@@ -33,15 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>パラメータなどここで調整できたらいいかもと思った</t>
-    <rPh sb="10" eb="12">
-      <t>パラメータナドココデチョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,13 +400,7 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
